--- a/プロジェクト型演習_成果物(メニュー).xlsx
+++ b/プロジェクト型演習_成果物(メニュー).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE0370-9749-4723-8679-A8285499EF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE44FDC-B970-46BB-A9E7-B861E8D63CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -184,32 +184,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>①タスク管理システムのログイン画面からログインする
-②ログインが完了したら画面が遷移し、メニュー画面が表示される</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>submit</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -275,6 +249,108 @@
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>①タスク管理システムのログイン画面からログインする
+②ログインが完了したら画面が遷移し、メニュー画面が表示される
+③各機能のボタンを押す</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク登録ボタンを押すとタスク登録画面が表示される</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク一覧表示ボタンを押すとタスク一覧表示画面が表示される</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログアウトボタンを押すとログアウト画面が表示される</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>/TaskEditServlet</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>/TaskListServlet</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -356,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -921,11 +997,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1016,12 +1123,105 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,111 +1231,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1154,14 +1270,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2847,7 +2981,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:J1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
@@ -2861,19 +2995,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -2885,68 +3019,68 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="55"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="38">
+      <c r="E2" s="64"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="67">
         <v>45630</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="65" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="66"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="36" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="22"/>
@@ -2954,15 +3088,15 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="48"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="22"/>
@@ -2970,15 +3104,15 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="48"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="22"/>
@@ -2986,84 +3120,112 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="48"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="78" t="s">
-        <v>40</v>
+      <c r="D9" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="48"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="48"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="48"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="47"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="48"/>
+      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A14" s="85"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+    </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
@@ -4049,9 +4211,30 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="1001" ht="12.75" customHeight="1"/>
+    <row r="1002" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D13:J13"/>
+  <mergeCells count="29">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A12:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D15:J15"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="D7:J7"/>
@@ -4059,25 +4242,8 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4101,19 +4267,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4125,44 +4291,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="55"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="38">
+      <c r="E2" s="64"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="67">
         <v>45630</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -5504,7 +5670,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:J1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
@@ -5518,19 +5684,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -5542,65 +5708,65 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="55"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="38">
+      <c r="E2" s="64"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="67">
         <v>45631</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="25"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="70" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="66"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="22"/>
@@ -5611,22 +5777,22 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="48"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="55"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -5635,10 +5801,10 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="74"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5647,10 +5813,10 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="74"/>
+      <c r="J9" s="77"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="55"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -5659,10 +5825,10 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="74"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="55"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -5671,10 +5837,10 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="74"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -5683,10 +5849,10 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="74"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="55"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -5695,10 +5861,10 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="74"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="55"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -5707,10 +5873,10 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="74"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="22"/>
@@ -5721,15 +5887,17 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="48"/>
+      <c r="J15" s="37"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="47"/>
+      <c r="D16" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -5737,10 +5905,12 @@
       <c r="I16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="22"/>
@@ -5757,125 +5927,220 @@
       <c r="G17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="78" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="22"/>
-      <c r="J17" s="48"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
       <c r="A18" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="48"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="69" t="s">
-        <v>44</v>
+      <c r="A20" s="72" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>48</v>
-      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="48"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="69"/>
+      <c r="A21" s="72" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="48"/>
+      <c r="D21" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="69"/>
+      <c r="A22" s="72" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>18</v>
+      </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="48"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="69"/>
+      <c r="A23" s="69" t="s">
+        <v>42</v>
+      </c>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="47"/>
+      <c r="G23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="I23" s="22"/>
-      <c r="J23" s="48"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="64"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A25" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A26" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A27" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A28" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A29" s="69"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="37"/>
+    </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6848,24 +7113,40 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
     <row r="1001" ht="12.75" customHeight="1"/>
+    <row r="1002" ht="12.75" customHeight="1"/>
+    <row r="1003" ht="12.75" customHeight="1"/>
+    <row r="1004" ht="12.75" customHeight="1"/>
+    <row r="1005" ht="12.75" customHeight="1"/>
+    <row r="1006" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="39">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D5:J5"/>
@@ -6877,10 +7158,7 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物(メニュー).xlsx
+++ b/プロジェクト型演習_成果物(メニュー).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE44FDC-B970-46BB-A9E7-B861E8D63CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B40DCEA-2614-45F0-9C9B-B655F2371F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -353,6 +353,54 @@
     <t>/TaskListServlet</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>レイヤー</t>
+  </si>
+  <si>
+    <t>配置場所</t>
+    <rPh sb="0" eb="4">
+      <t>ハイチバショ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>WebApp</t>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メニューとログインユーザー情報を表示する
+メニュー画面</t>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -417,6 +465,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -432,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1028,11 +1083,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1123,119 +1245,146 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,15 +1392,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1267,35 +1419,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1568,13 +1711,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>866990</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2995,19 +3138,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3019,68 +3162,68 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="44"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="67">
+      <c r="E2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="38">
         <v>45630</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="60"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="61"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="68" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="46" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="22"/>
@@ -3088,15 +3231,15 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="46" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="22"/>
@@ -3104,15 +3247,15 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="68" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="22"/>
@@ -3120,17 +3263,17 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="37"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="76" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="22"/>
@@ -3138,43 +3281,43 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="37"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="37"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="37"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="46" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="22"/>
@@ -3182,13 +3325,13 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="37"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="36" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="46" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="22"/>
@@ -3196,13 +3339,13 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="37"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A14" s="85"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="36" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="46" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="22"/>
@@ -3210,21 +3353,21 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="37"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -4215,25 +4358,6 @@
     <row r="1002" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A12:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -4244,6 +4368,25 @@
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A12:C14"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4267,19 +4410,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4291,44 +4434,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="44"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="67">
+      <c r="E2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="38">
         <v>45630</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="60"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="61"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -5670,11 +5813,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1006"/>
+  <dimension ref="A2:J1011"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5683,176 +5824,160 @@
     <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="68" t="s">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="D2" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="D3" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="90"/>
+      <c r="H3" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1"/>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
+      <c r="A6" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="62" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="62" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="4" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="63" t="s">
+    <row r="7" spans="1:10" ht="18" customHeight="1">
+      <c r="A7" s="63"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="67">
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="38">
         <v>45631</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="60"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="60"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
+      <c r="A8" s="63"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="43"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
+      <c r="A9" s="63"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A10" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="73" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="77"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="77"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="44"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -5861,10 +5986,10 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="77"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="44"/>
+      <c r="J13" s="87"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1">
+      <c r="A14" s="63"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -5873,100 +5998,70 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="77"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
+      <c r="J14" s="87"/>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1">
+      <c r="A15" s="63"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="87"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1">
+      <c r="A16" s="63"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="87"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1">
+      <c r="A17" s="63"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="87"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="87"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="63"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="79" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="22"/>
@@ -5977,16 +6072,16 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="37"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="36" t="s">
-        <v>54</v>
+      <c r="D21" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -6000,7 +6095,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="79" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="22"/>
@@ -6017,15 +6112,15 @@
       <c r="G22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="78" t="s">
+      <c r="H22" s="80" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="37"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="69" t="s">
-        <v>42</v>
+      <c r="A23" s="78" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
@@ -6035,28 +6130,28 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="I23" s="22"/>
-      <c r="J23" s="37"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="79" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="22"/>
@@ -6067,15 +6162,17 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="37"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="36"/>
+      <c r="D26" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
@@ -6083,10 +6180,12 @@
       <c r="I26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="16"/>
+      <c r="J26" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="79" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="22"/>
@@ -6103,15 +6202,15 @@
       <c r="G27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="78" t="s">
+      <c r="H27" s="80" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="22"/>
-      <c r="J27" s="37"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A28" s="69" t="s">
-        <v>43</v>
+      <c r="A28" s="78" t="s">
+        <v>42</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -6121,45 +6220,126 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A29" s="81"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="73"/>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A30" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A31" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A32" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="47"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A33" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="47"/>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A34" s="78"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="47"/>
+    </row>
+    <row r="35" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="36" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="37" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="12.75" customHeight="1"/>
@@ -7118,47 +7298,58 @@
     <row r="1004" ht="12.75" customHeight="1"/>
     <row r="1005" ht="12.75" customHeight="1"/>
     <row r="1006" ht="12.75" customHeight="1"/>
+    <row r="1007" ht="12.75" customHeight="1"/>
+    <row r="1008" ht="12.75" customHeight="1"/>
+    <row r="1009" ht="12.75" customHeight="1"/>
+    <row r="1010" ht="12.75" customHeight="1"/>
+    <row r="1011" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="45">
+    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="A6:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J19"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物(メニュー).xlsx
+++ b/プロジェクト型演習_成果物(メニュー).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B40DCEA-2614-45F0-9C9B-B655F2371F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F517E6-DD3A-412C-80C9-8A46A427A8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="837" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>/TaskEditServlet</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -397,6 +393,32 @@
       <t>ヒョウジ</t>
     </rPh>
     <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>logout-success.jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>logout-success.jsp</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログアウトしたことを表示する画面</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -487,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1124,32 +1146,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1218,6 +1214,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,12 +1244,132 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,150 +1379,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1419,25 +1430,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1711,13 +1707,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>866990</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1953,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:O6"/>
     </sheetView>
   </sheetViews>
@@ -1965,85 +1961,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2063,48 +2059,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="21" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="29">
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="30">
         <v>45631</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2113,13 +2109,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3138,19 +3134,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3162,212 +3158,212 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="38">
+      <c r="E2" s="74"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="77">
         <v>45630</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="75"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="46" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="47"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="47"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="46" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="47"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="76" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="47"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="47"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="47"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="46" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="47"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="46" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="47"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="46" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="47"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="73"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -4358,6 +4354,25 @@
     <row r="1002" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A12:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -4368,25 +4383,6 @@
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A12:C14"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4410,19 +4406,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4434,44 +4430,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="38">
+      <c r="E2" s="74"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="77">
         <v>45630</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -5813,9 +5809,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J1011"/>
+  <dimension ref="A2:K1012"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5824,509 +5820,526 @@
     <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="D2" s="88" t="s">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="D2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="F2" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="D3" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="D3" s="93" t="s">
+      <c r="E3" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="F3" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="G3" s="81"/>
+      <c r="H3" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="D4" s="94"/>
       <c r="E4" s="94"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1"/>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="93"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1"/>
+    <row r="7" spans="1:11" ht="18" customHeight="1">
+      <c r="A7" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="30" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="4" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="32" t="s">
+    <row r="8" spans="1:11" ht="18" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="38">
+      <c r="E8" s="74"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="77">
         <v>45631</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I8" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="43"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="43"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1">
+      <c r="A9" s="45"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="61"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="61"/>
+    </row>
+    <row r="11" spans="1:11" ht="28.5" customHeight="1">
+      <c r="A11" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="83" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="75"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="79" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1">
+      <c r="A12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
-    </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="87"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="87"/>
-    </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="87"/>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="87"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" ht="21" customHeight="1">
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="92"/>
+    </row>
+    <row r="15" spans="1:11" ht="21" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="92"/>
+    </row>
+    <row r="16" spans="1:11" ht="21" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="92"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="87"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="87"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="87"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="92"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1">
+      <c r="A19" s="45"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="92"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A21" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="79" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A22" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="46" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A23" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A24" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A25" s="86"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A26" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="38"/>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A27" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="15" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="79" t="s">
+      <c r="J27" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A28" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="15" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H28" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
+      <c r="I28" s="23"/>
+      <c r="J28" s="38"/>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A29" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="73"/>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A25" s="79" t="s">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A30" s="86"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A31" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="47"/>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A26" s="79" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A32" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="15" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A27" s="79" t="s">
+      <c r="J32" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A33" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="15" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F33" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="80" t="s">
+      <c r="H33" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A28" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="I33" s="23"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A34" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="47"/>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A29" s="81"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="73"/>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="47"/>
-    </row>
-    <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A33" s="78" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="46" t="s">
+      <c r="H34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="47"/>
-    </row>
-    <row r="34" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A34" s="78"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="47"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A35" s="87"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="38"/>
+    </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="37" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="38" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7303,53 +7316,56 @@
     <row r="1009" ht="12.75" customHeight="1"/>
     <row r="1010" ht="12.75" customHeight="1"/>
     <row r="1011" ht="12.75" customHeight="1"/>
+    <row r="1012" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="D7:E9"/>
-    <mergeCell ref="H24:J24"/>
+  <mergeCells count="47">
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J20"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="F3:G4"/>
     <mergeCell ref="H3:J4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:H22"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="A6:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J19"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
